--- a/data/Data trimestral abril 2024 con dummies listo D1 1988 D2 1989 Dsoja.xlsx
+++ b/data/Data trimestral abril 2024 con dummies listo D1 1988 D2 1989 Dsoja.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianabarrena/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879CC48F-951C-964E-8D93-0766ECB5DD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC384A05-A7D8-A44F-9B6B-5A3A5F02B283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1840" windowWidth="38400" windowHeight="21600" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:16">
